--- a/文档/需求获取/QFD/SRA2021-G11-QFD 管理员打分表.xlsx
+++ b/文档/需求获取/QFD/SRA2021-G11-QFD 管理员打分表.xlsx
@@ -51,7 +51,7 @@
     <t>优先级    :  = （价值%）/（（成本%*成本价值）+（风险%*风险价值））</t>
   </si>
   <si>
-    <t>SRA2020-G11-QFD-管理员打分表</t>
+    <t>SRA2021-G11-QFD-管理员打分表</t>
   </si>
   <si>
     <t>编号</t>
@@ -257,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -296,7 +296,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -311,37 +326,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -355,16 +340,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,10 +362,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -409,14 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -438,6 +430,14 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -454,7 +454,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,49 +532,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,13 +568,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -544,79 +604,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -628,13 +622,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,15 +833,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -859,10 +850,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -872,7 +861,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,6 +919,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -938,10 +938,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,137 +950,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1156,24 +1156,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1203,15 +1185,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1564,7 +1537,7 @@
   <dimension ref="A1:O119"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52:K52"/>
+      <selection activeCell="A16" sqref="A16:O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1588,7 +1561,7 @@
       <c r="K2" s="3"/>
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
-      <c r="N2" s="32"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="2:14">
       <c r="B3" s="4" t="s">
@@ -1605,7 +1578,7 @@
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="33"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="2:14">
       <c r="B4" s="4" t="s">
@@ -1622,7 +1595,7 @@
       <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
-      <c r="N4" s="33"/>
+      <c r="N4" s="27"/>
     </row>
     <row r="5" spans="2:14">
       <c r="B5" s="4" t="s">
@@ -1639,7 +1612,7 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="33"/>
+      <c r="N5" s="27"/>
     </row>
     <row r="6" spans="2:14">
       <c r="B6" s="4" t="s">
@@ -1656,7 +1629,7 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-      <c r="N6" s="33"/>
+      <c r="N6" s="27"/>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="4" t="s">
@@ -1673,7 +1646,7 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="33"/>
+      <c r="N7" s="27"/>
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="4" t="s">
@@ -1690,7 +1663,7 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-      <c r="N8" s="33"/>
+      <c r="N8" s="27"/>
     </row>
     <row r="9" spans="2:14">
       <c r="B9" s="4" t="s">
@@ -1707,7 +1680,7 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="33"/>
+      <c r="N9" s="27"/>
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="4" t="s">
@@ -1724,7 +1697,7 @@
       <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
-      <c r="N10" s="33"/>
+      <c r="N10" s="27"/>
     </row>
     <row r="11" spans="2:14">
       <c r="B11" s="4" t="s">
@@ -1741,7 +1714,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="33"/>
+      <c r="N11" s="27"/>
     </row>
     <row r="12" spans="2:14">
       <c r="B12" s="4" t="s">
@@ -1758,7 +1731,7 @@
       <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
-      <c r="N12" s="33"/>
+      <c r="N12" s="27"/>
     </row>
     <row r="13" ht="15.15" spans="2:14">
       <c r="B13" s="6"/>
@@ -1773,7 +1746,7 @@
       <c r="K13" s="7"/>
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
-      <c r="N13" s="34"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="14" ht="15.15"/>
     <row r="15" ht="15.15"/>
@@ -1794,7 +1767,7 @@
       <c r="L16" s="9"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
-      <c r="O16" s="35"/>
+      <c r="O16" s="29"/>
     </row>
     <row r="17" ht="15.15" spans="1:15">
       <c r="A17" s="10" t="s">
@@ -1837,10 +1810,10 @@
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="14"/>
-      <c r="L18" s="36"/>
-      <c r="M18" s="37"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="37"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="31"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="31"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="13">
@@ -1857,11 +1830,11 @@
       <c r="H19" s="17"/>
       <c r="I19" s="17"/>
       <c r="J19" s="17"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="36"/>
-      <c r="M19" s="37"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="37"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="30"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="31"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="13" t="s">
@@ -1878,11 +1851,11 @@
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
-      <c r="K20" s="39"/>
-      <c r="L20" s="36"/>
-      <c r="M20" s="37"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="37"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="31"/>
+      <c r="N20" s="30"/>
+      <c r="O20" s="31"/>
     </row>
     <row r="21" spans="1:15">
       <c r="A21" s="20" t="s">
@@ -1899,11 +1872,11 @@
       <c r="H21" s="23"/>
       <c r="I21" s="23"/>
       <c r="J21" s="23"/>
-      <c r="K21" s="40"/>
-      <c r="L21" s="36"/>
-      <c r="M21" s="37"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="37"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="31"/>
     </row>
     <row r="22" spans="1:15">
       <c r="A22" s="20" t="s">
@@ -1920,11 +1893,11 @@
       <c r="H22" s="23"/>
       <c r="I22" s="23"/>
       <c r="J22" s="23"/>
-      <c r="K22" s="40"/>
-      <c r="L22" s="36"/>
-      <c r="M22" s="37"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="37"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="30"/>
+      <c r="M22" s="31"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="31"/>
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="20" t="s">
@@ -1941,11 +1914,11 @@
       <c r="H23" s="23"/>
       <c r="I23" s="23"/>
       <c r="J23" s="23"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="36"/>
-      <c r="M23" s="37"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="37"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="30"/>
+      <c r="M23" s="31"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="31"/>
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="13" t="s">
@@ -1962,11 +1935,11 @@
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
-      <c r="K24" s="39"/>
-      <c r="L24" s="36"/>
-      <c r="M24" s="37"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="37"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="31"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="31"/>
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="13" t="s">
@@ -1983,11 +1956,11 @@
       <c r="H25" s="19"/>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
-      <c r="K25" s="39"/>
-      <c r="L25" s="36"/>
-      <c r="M25" s="37"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="37"/>
+      <c r="K25" s="33"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="31"/>
+      <c r="N25" s="30"/>
+      <c r="O25" s="31"/>
     </row>
     <row r="26" spans="1:15">
       <c r="A26" s="20" t="s">
@@ -2004,11 +1977,11 @@
       <c r="H26" s="23"/>
       <c r="I26" s="23"/>
       <c r="J26" s="23"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="36"/>
-      <c r="M26" s="37"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="37"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="31"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="31"/>
     </row>
     <row r="27" spans="1:15">
       <c r="A27" s="20" t="s">
@@ -2026,10 +1999,10 @@
       <c r="I27" s="24"/>
       <c r="J27" s="24"/>
       <c r="K27" s="24"/>
-      <c r="L27" s="36"/>
-      <c r="M27" s="37"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="37"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="31"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="31"/>
     </row>
     <row r="28" spans="1:15">
       <c r="A28" s="13" t="s">
@@ -2046,11 +2019,11 @@
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
-      <c r="K28" s="39"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="37"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="37"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="31"/>
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="20" t="s">
@@ -2067,11 +2040,11 @@
       <c r="H29" s="23"/>
       <c r="I29" s="23"/>
       <c r="J29" s="23"/>
-      <c r="K29" s="40"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="37"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="37"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="31"/>
     </row>
     <row r="30" spans="1:15">
       <c r="A30" s="13">
@@ -2088,11 +2061,11 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="17"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="37"/>
+      <c r="K30" s="32"/>
+      <c r="L30" s="30"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="30"/>
+      <c r="O30" s="31"/>
     </row>
     <row r="31" spans="1:15">
       <c r="A31" s="13" t="s">
@@ -2109,11 +2082,11 @@
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
-      <c r="K31" s="39"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="37"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="31"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="31"/>
     </row>
     <row r="32" spans="1:15">
       <c r="A32" s="13" t="s">
@@ -2130,11 +2103,11 @@
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
-      <c r="K32" s="39"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="37"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="30"/>
+      <c r="M32" s="31"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="31"/>
     </row>
     <row r="33" spans="1:15">
       <c r="A33" s="13" t="s">
@@ -2151,11 +2124,11 @@
       <c r="H33" s="19"/>
       <c r="I33" s="19"/>
       <c r="J33" s="19"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="37"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="37"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="30"/>
+      <c r="M33" s="31"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="31"/>
     </row>
     <row r="34" spans="1:15">
       <c r="A34" s="13" t="s">
@@ -2172,11 +2145,11 @@
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
-      <c r="K34" s="39"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="37"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="37"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="31"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="31"/>
     </row>
     <row r="35" spans="1:15">
       <c r="A35" s="13" t="s">
@@ -2193,11 +2166,11 @@
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="19"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="37"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="30"/>
+      <c r="M35" s="31"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="31"/>
     </row>
     <row r="36" spans="1:15">
       <c r="A36" s="13">
@@ -2214,11 +2187,11 @@
       <c r="H36" s="17"/>
       <c r="I36" s="17"/>
       <c r="J36" s="17"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="37"/>
+      <c r="K36" s="32"/>
+      <c r="L36" s="30"/>
+      <c r="M36" s="31"/>
+      <c r="N36" s="30"/>
+      <c r="O36" s="31"/>
     </row>
     <row r="37" spans="1:15">
       <c r="A37" s="13" t="s">
@@ -2235,11 +2208,11 @@
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
       <c r="J37" s="19"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="37"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="30"/>
+      <c r="M37" s="31"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="31"/>
     </row>
     <row r="38" spans="1:15">
       <c r="A38" s="13" t="s">
@@ -2256,11 +2229,11 @@
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
       <c r="J38" s="19"/>
-      <c r="K38" s="39"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="37"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="30"/>
+      <c r="M38" s="31"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="31"/>
     </row>
     <row r="39" spans="1:15">
       <c r="A39" s="13" t="s">
@@ -2277,11 +2250,11 @@
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
       <c r="J39" s="19"/>
-      <c r="K39" s="39"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="37"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="30"/>
+      <c r="M39" s="31"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="31"/>
     </row>
     <row r="40" spans="1:15">
       <c r="A40" s="13" t="s">
@@ -2298,11 +2271,11 @@
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
       <c r="J40" s="19"/>
-      <c r="K40" s="39"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="37"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="30"/>
+      <c r="M40" s="31"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="31"/>
     </row>
     <row r="41" spans="1:15">
       <c r="A41" s="13" t="s">
@@ -2319,11 +2292,11 @@
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
       <c r="J41" s="19"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="37"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="30"/>
+      <c r="M41" s="31"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="31"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="13">
@@ -2340,11 +2313,11 @@
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
       <c r="J42" s="17"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="37"/>
+      <c r="K42" s="32"/>
+      <c r="L42" s="30"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="31"/>
     </row>
     <row r="43" spans="1:15">
       <c r="A43" s="13" t="s">
@@ -2361,11 +2334,11 @@
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
       <c r="J43" s="19"/>
-      <c r="K43" s="39"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="37"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="31"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="31"/>
     </row>
     <row r="44" spans="1:15">
       <c r="A44" s="13" t="s">
@@ -2382,11 +2355,11 @@
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
       <c r="J44" s="19"/>
-      <c r="K44" s="39"/>
-      <c r="L44" s="36"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="37"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="30"/>
+      <c r="M44" s="31"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="31"/>
     </row>
     <row r="45" spans="1:15">
       <c r="A45" s="13" t="s">
@@ -2403,11 +2376,11 @@
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
       <c r="J45" s="19"/>
-      <c r="K45" s="39"/>
-      <c r="L45" s="36"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="37"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="31"/>
+      <c r="N45" s="30"/>
+      <c r="O45" s="31"/>
     </row>
     <row r="46" spans="1:15">
       <c r="A46" s="13">
@@ -2424,11 +2397,11 @@
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
       <c r="J46" s="17"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="36"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="37"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="30"/>
+      <c r="M46" s="31"/>
+      <c r="N46" s="30"/>
+      <c r="O46" s="31"/>
     </row>
     <row r="47" spans="1:15">
       <c r="A47" s="13">
@@ -2445,11 +2418,11 @@
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
       <c r="J47" s="17"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="37"/>
+      <c r="K47" s="32"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="31"/>
+      <c r="N47" s="30"/>
+      <c r="O47" s="31"/>
     </row>
     <row r="48" spans="1:15">
       <c r="A48" s="13" t="s">
@@ -2466,11 +2439,11 @@
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
       <c r="J48" s="19"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="36"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="37"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="30"/>
+      <c r="M48" s="31"/>
+      <c r="N48" s="30"/>
+      <c r="O48" s="31"/>
     </row>
     <row r="49" spans="1:15">
       <c r="A49" s="13" t="s">
@@ -2487,11 +2460,11 @@
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
       <c r="J49" s="19"/>
-      <c r="K49" s="39"/>
-      <c r="L49" s="36"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="37"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="30"/>
+      <c r="M49" s="31"/>
+      <c r="N49" s="30"/>
+      <c r="O49" s="31"/>
     </row>
     <row r="50" spans="1:15">
       <c r="A50" s="13" t="s">
@@ -2508,11 +2481,11 @@
       <c r="H50" s="19"/>
       <c r="I50" s="19"/>
       <c r="J50" s="19"/>
-      <c r="K50" s="39"/>
-      <c r="L50" s="36"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="37"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="30"/>
+      <c r="M50" s="31"/>
+      <c r="N50" s="30"/>
+      <c r="O50" s="31"/>
     </row>
     <row r="51" spans="1:15">
       <c r="A51" s="13" t="s">
@@ -2529,1191 +2502,1191 @@
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
       <c r="J51" s="19"/>
-      <c r="K51" s="39"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="36"/>
-      <c r="O51" s="37"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="30"/>
+      <c r="M51" s="31"/>
+      <c r="N51" s="30"/>
+      <c r="O51" s="31"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="25">
+      <c r="A52" s="13">
         <v>1.7</v>
       </c>
-      <c r="B52" s="26"/>
+      <c r="B52" s="14"/>
       <c r="C52" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="D52" s="27"/>
-      <c r="E52" s="27"/>
-      <c r="F52" s="27"/>
-      <c r="G52" s="27"/>
-      <c r="H52" s="27"/>
-      <c r="I52" s="27"/>
-      <c r="J52" s="27"/>
-      <c r="K52" s="41"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="36"/>
-      <c r="O52" s="37"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="17"/>
+      <c r="J52" s="17"/>
+      <c r="K52" s="32"/>
+      <c r="L52" s="30"/>
+      <c r="M52" s="31"/>
+      <c r="N52" s="30"/>
+      <c r="O52" s="31"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="B53" s="26"/>
-      <c r="C53" s="28" t="s">
+      <c r="B53" s="14"/>
+      <c r="C53" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="D53" s="29"/>
-      <c r="E53" s="29"/>
-      <c r="F53" s="29"/>
-      <c r="G53" s="29"/>
-      <c r="H53" s="29"/>
-      <c r="I53" s="29"/>
-      <c r="J53" s="29"/>
-      <c r="K53" s="42"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="36"/>
-      <c r="O53" s="37"/>
+      <c r="D53" s="19"/>
+      <c r="E53" s="19"/>
+      <c r="F53" s="19"/>
+      <c r="G53" s="19"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="30"/>
+      <c r="M53" s="31"/>
+      <c r="N53" s="30"/>
+      <c r="O53" s="31"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="B54" s="26"/>
-      <c r="C54" s="28" t="s">
+      <c r="B54" s="14"/>
+      <c r="C54" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="29"/>
-      <c r="E54" s="29"/>
-      <c r="F54" s="29"/>
-      <c r="G54" s="29"/>
-      <c r="H54" s="29"/>
-      <c r="I54" s="29"/>
-      <c r="J54" s="29"/>
-      <c r="K54" s="42"/>
-      <c r="L54" s="36"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="36"/>
-      <c r="O54" s="37"/>
+      <c r="D54" s="19"/>
+      <c r="E54" s="19"/>
+      <c r="F54" s="19"/>
+      <c r="G54" s="19"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="30"/>
+      <c r="M54" s="31"/>
+      <c r="N54" s="30"/>
+      <c r="O54" s="31"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="25">
+      <c r="A55" s="13">
         <v>1.8</v>
       </c>
-      <c r="B55" s="26"/>
+      <c r="B55" s="14"/>
       <c r="C55" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="27"/>
-      <c r="E55" s="27"/>
-      <c r="F55" s="27"/>
-      <c r="G55" s="27"/>
-      <c r="H55" s="27"/>
-      <c r="I55" s="27"/>
-      <c r="J55" s="27"/>
-      <c r="K55" s="41"/>
-      <c r="L55" s="36"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="36"/>
-      <c r="O55" s="37"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="17"/>
+      <c r="K55" s="32"/>
+      <c r="L55" s="30"/>
+      <c r="M55" s="31"/>
+      <c r="N55" s="30"/>
+      <c r="O55" s="31"/>
     </row>
     <row r="56" spans="1:15">
       <c r="A56" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="B56" s="26"/>
+      <c r="B56" s="14"/>
       <c r="C56" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="D56" s="30"/>
-      <c r="E56" s="30"/>
-      <c r="F56" s="30"/>
-      <c r="G56" s="30"/>
-      <c r="H56" s="30"/>
-      <c r="I56" s="30"/>
-      <c r="J56" s="30"/>
-      <c r="K56" s="43"/>
-      <c r="L56" s="36"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="36"/>
-      <c r="O56" s="37"/>
+      <c r="D56" s="19"/>
+      <c r="E56" s="19"/>
+      <c r="F56" s="19"/>
+      <c r="G56" s="19"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="30"/>
+      <c r="M56" s="31"/>
+      <c r="N56" s="30"/>
+      <c r="O56" s="31"/>
     </row>
     <row r="57" spans="1:15">
       <c r="A57" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="B57" s="26"/>
+      <c r="B57" s="14"/>
       <c r="C57" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D57" s="30"/>
-      <c r="E57" s="30"/>
-      <c r="F57" s="30"/>
-      <c r="G57" s="30"/>
-      <c r="H57" s="30"/>
-      <c r="I57" s="30"/>
-      <c r="J57" s="30"/>
-      <c r="K57" s="43"/>
-      <c r="L57" s="36"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="36"/>
-      <c r="O57" s="37"/>
+      <c r="D57" s="19"/>
+      <c r="E57" s="19"/>
+      <c r="F57" s="19"/>
+      <c r="G57" s="19"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="30"/>
+      <c r="M57" s="31"/>
+      <c r="N57" s="30"/>
+      <c r="O57" s="31"/>
     </row>
     <row r="58" spans="1:15">
       <c r="A58" s="20"/>
       <c r="B58" s="21"/>
       <c r="C58" s="20"/>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
-      <c r="I58" s="31"/>
-      <c r="J58" s="31"/>
+      <c r="D58" s="25"/>
+      <c r="E58" s="25"/>
+      <c r="F58" s="25"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="25"/>
+      <c r="I58" s="25"/>
+      <c r="J58" s="25"/>
       <c r="K58" s="21"/>
-      <c r="L58" s="36"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="36"/>
-      <c r="O58" s="37"/>
+      <c r="L58" s="30"/>
+      <c r="M58" s="31"/>
+      <c r="N58" s="30"/>
+      <c r="O58" s="31"/>
     </row>
     <row r="59" spans="1:15">
       <c r="A59" s="20"/>
       <c r="B59" s="21"/>
       <c r="C59" s="20"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="31"/>
-      <c r="H59" s="31"/>
-      <c r="I59" s="31"/>
-      <c r="J59" s="31"/>
+      <c r="D59" s="25"/>
+      <c r="E59" s="25"/>
+      <c r="F59" s="25"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="25"/>
+      <c r="I59" s="25"/>
+      <c r="J59" s="25"/>
       <c r="K59" s="21"/>
-      <c r="L59" s="36"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="36"/>
-      <c r="O59" s="37"/>
+      <c r="L59" s="30"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="30"/>
+      <c r="O59" s="31"/>
     </row>
     <row r="60" spans="1:15">
       <c r="A60" s="20"/>
       <c r="B60" s="21"/>
       <c r="C60" s="20"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="31"/>
-      <c r="F60" s="31"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="31"/>
-      <c r="I60" s="31"/>
-      <c r="J60" s="31"/>
+      <c r="D60" s="25"/>
+      <c r="E60" s="25"/>
+      <c r="F60" s="25"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="25"/>
+      <c r="I60" s="25"/>
+      <c r="J60" s="25"/>
       <c r="K60" s="21"/>
-      <c r="L60" s="36"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="36"/>
-      <c r="O60" s="37"/>
+      <c r="L60" s="30"/>
+      <c r="M60" s="31"/>
+      <c r="N60" s="30"/>
+      <c r="O60" s="31"/>
     </row>
     <row r="61" spans="1:15">
       <c r="A61" s="20"/>
       <c r="B61" s="21"/>
       <c r="C61" s="20"/>
-      <c r="D61" s="31"/>
-      <c r="E61" s="31"/>
-      <c r="F61" s="31"/>
-      <c r="G61" s="31"/>
-      <c r="H61" s="31"/>
-      <c r="I61" s="31"/>
-      <c r="J61" s="31"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="25"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="25"/>
+      <c r="I61" s="25"/>
+      <c r="J61" s="25"/>
       <c r="K61" s="21"/>
-      <c r="L61" s="36"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="36"/>
-      <c r="O61" s="37"/>
+      <c r="L61" s="30"/>
+      <c r="M61" s="31"/>
+      <c r="N61" s="30"/>
+      <c r="O61" s="31"/>
     </row>
     <row r="62" spans="1:15">
       <c r="A62" s="20"/>
       <c r="B62" s="21"/>
       <c r="C62" s="20"/>
-      <c r="D62" s="31"/>
-      <c r="E62" s="31"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="31"/>
-      <c r="I62" s="31"/>
-      <c r="J62" s="31"/>
+      <c r="D62" s="25"/>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
       <c r="K62" s="21"/>
-      <c r="L62" s="36"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="36"/>
-      <c r="O62" s="37"/>
+      <c r="L62" s="30"/>
+      <c r="M62" s="31"/>
+      <c r="N62" s="30"/>
+      <c r="O62" s="31"/>
     </row>
     <row r="63" spans="1:15">
       <c r="A63" s="20"/>
       <c r="B63" s="21"/>
       <c r="C63" s="20"/>
-      <c r="D63" s="31"/>
-      <c r="E63" s="31"/>
-      <c r="F63" s="31"/>
-      <c r="G63" s="31"/>
-      <c r="H63" s="31"/>
-      <c r="I63" s="31"/>
-      <c r="J63" s="31"/>
+      <c r="D63" s="25"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="25"/>
+      <c r="G63" s="25"/>
+      <c r="H63" s="25"/>
+      <c r="I63" s="25"/>
+      <c r="J63" s="25"/>
       <c r="K63" s="21"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="36"/>
-      <c r="O63" s="37"/>
+      <c r="L63" s="30"/>
+      <c r="M63" s="31"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="31"/>
     </row>
     <row r="64" spans="1:15">
       <c r="A64" s="20"/>
       <c r="B64" s="21"/>
       <c r="C64" s="20"/>
-      <c r="D64" s="31"/>
-      <c r="E64" s="31"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="31"/>
-      <c r="I64" s="31"/>
-      <c r="J64" s="31"/>
+      <c r="D64" s="25"/>
+      <c r="E64" s="25"/>
+      <c r="F64" s="25"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="25"/>
+      <c r="I64" s="25"/>
+      <c r="J64" s="25"/>
       <c r="K64" s="21"/>
-      <c r="L64" s="36"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="36"/>
-      <c r="O64" s="37"/>
+      <c r="L64" s="30"/>
+      <c r="M64" s="31"/>
+      <c r="N64" s="30"/>
+      <c r="O64" s="31"/>
     </row>
     <row r="65" spans="1:15">
       <c r="A65" s="20"/>
       <c r="B65" s="21"/>
       <c r="C65" s="20"/>
-      <c r="D65" s="31"/>
-      <c r="E65" s="31"/>
-      <c r="F65" s="31"/>
-      <c r="G65" s="31"/>
-      <c r="H65" s="31"/>
-      <c r="I65" s="31"/>
-      <c r="J65" s="31"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="25"/>
+      <c r="F65" s="25"/>
+      <c r="G65" s="25"/>
+      <c r="H65" s="25"/>
+      <c r="I65" s="25"/>
+      <c r="J65" s="25"/>
       <c r="K65" s="21"/>
-      <c r="L65" s="36"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="36"/>
-      <c r="O65" s="37"/>
+      <c r="L65" s="30"/>
+      <c r="M65" s="31"/>
+      <c r="N65" s="30"/>
+      <c r="O65" s="31"/>
     </row>
     <row r="66" spans="1:15">
       <c r="A66" s="20"/>
       <c r="B66" s="21"/>
       <c r="C66" s="20"/>
-      <c r="D66" s="31"/>
-      <c r="E66" s="31"/>
-      <c r="F66" s="31"/>
-      <c r="G66" s="31"/>
-      <c r="H66" s="31"/>
-      <c r="I66" s="31"/>
-      <c r="J66" s="31"/>
+      <c r="D66" s="25"/>
+      <c r="E66" s="25"/>
+      <c r="F66" s="25"/>
+      <c r="G66" s="25"/>
+      <c r="H66" s="25"/>
+      <c r="I66" s="25"/>
+      <c r="J66" s="25"/>
       <c r="K66" s="21"/>
-      <c r="L66" s="36"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="36"/>
-      <c r="O66" s="37"/>
+      <c r="L66" s="30"/>
+      <c r="M66" s="31"/>
+      <c r="N66" s="30"/>
+      <c r="O66" s="31"/>
     </row>
     <row r="67" spans="1:15">
       <c r="A67" s="20"/>
       <c r="B67" s="21"/>
       <c r="C67" s="20"/>
-      <c r="D67" s="31"/>
-      <c r="E67" s="31"/>
-      <c r="F67" s="31"/>
-      <c r="G67" s="31"/>
-      <c r="H67" s="31"/>
-      <c r="I67" s="31"/>
-      <c r="J67" s="31"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="25"/>
+      <c r="F67" s="25"/>
+      <c r="G67" s="25"/>
+      <c r="H67" s="25"/>
+      <c r="I67" s="25"/>
+      <c r="J67" s="25"/>
       <c r="K67" s="21"/>
-      <c r="L67" s="36"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="36"/>
-      <c r="O67" s="37"/>
+      <c r="L67" s="30"/>
+      <c r="M67" s="31"/>
+      <c r="N67" s="30"/>
+      <c r="O67" s="31"/>
     </row>
     <row r="68" spans="1:15">
       <c r="A68" s="20"/>
       <c r="B68" s="21"/>
       <c r="C68" s="20"/>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="31"/>
-      <c r="G68" s="31"/>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
+      <c r="D68" s="25"/>
+      <c r="E68" s="25"/>
+      <c r="F68" s="25"/>
+      <c r="G68" s="25"/>
+      <c r="H68" s="25"/>
+      <c r="I68" s="25"/>
+      <c r="J68" s="25"/>
       <c r="K68" s="21"/>
-      <c r="L68" s="36"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="36"/>
-      <c r="O68" s="37"/>
+      <c r="L68" s="30"/>
+      <c r="M68" s="31"/>
+      <c r="N68" s="30"/>
+      <c r="O68" s="31"/>
     </row>
     <row r="69" spans="1:15">
       <c r="A69" s="20"/>
       <c r="B69" s="21"/>
       <c r="C69" s="20"/>
-      <c r="D69" s="31"/>
-      <c r="E69" s="31"/>
-      <c r="F69" s="31"/>
-      <c r="G69" s="31"/>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="J69" s="31"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="25"/>
+      <c r="F69" s="25"/>
+      <c r="G69" s="25"/>
+      <c r="H69" s="25"/>
+      <c r="I69" s="25"/>
+      <c r="J69" s="25"/>
       <c r="K69" s="21"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="36"/>
-      <c r="O69" s="37"/>
+      <c r="L69" s="30"/>
+      <c r="M69" s="31"/>
+      <c r="N69" s="30"/>
+      <c r="O69" s="31"/>
     </row>
     <row r="70" spans="1:15">
       <c r="A70" s="20"/>
       <c r="B70" s="21"/>
       <c r="C70" s="20"/>
-      <c r="D70" s="31"/>
-      <c r="E70" s="31"/>
-      <c r="F70" s="31"/>
-      <c r="G70" s="31"/>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="J70" s="31"/>
+      <c r="D70" s="25"/>
+      <c r="E70" s="25"/>
+      <c r="F70" s="25"/>
+      <c r="G70" s="25"/>
+      <c r="H70" s="25"/>
+      <c r="I70" s="25"/>
+      <c r="J70" s="25"/>
       <c r="K70" s="21"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="36"/>
-      <c r="O70" s="37"/>
+      <c r="L70" s="30"/>
+      <c r="M70" s="31"/>
+      <c r="N70" s="30"/>
+      <c r="O70" s="31"/>
     </row>
     <row r="71" spans="1:15">
       <c r="A71" s="20"/>
       <c r="B71" s="21"/>
       <c r="C71" s="20"/>
-      <c r="D71" s="31"/>
-      <c r="E71" s="31"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="31"/>
+      <c r="D71" s="25"/>
+      <c r="E71" s="25"/>
+      <c r="F71" s="25"/>
+      <c r="G71" s="25"/>
+      <c r="H71" s="25"/>
+      <c r="I71" s="25"/>
+      <c r="J71" s="25"/>
       <c r="K71" s="21"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="36"/>
-      <c r="O71" s="37"/>
+      <c r="L71" s="30"/>
+      <c r="M71" s="31"/>
+      <c r="N71" s="30"/>
+      <c r="O71" s="31"/>
     </row>
     <row r="72" spans="1:15">
       <c r="A72" s="20"/>
       <c r="B72" s="21"/>
       <c r="C72" s="20"/>
-      <c r="D72" s="31"/>
-      <c r="E72" s="31"/>
-      <c r="F72" s="31"/>
-      <c r="G72" s="31"/>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
-      <c r="J72" s="31"/>
+      <c r="D72" s="25"/>
+      <c r="E72" s="25"/>
+      <c r="F72" s="25"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="25"/>
+      <c r="I72" s="25"/>
+      <c r="J72" s="25"/>
       <c r="K72" s="21"/>
-      <c r="L72" s="36"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="36"/>
-      <c r="O72" s="37"/>
+      <c r="L72" s="30"/>
+      <c r="M72" s="31"/>
+      <c r="N72" s="30"/>
+      <c r="O72" s="31"/>
     </row>
     <row r="73" spans="1:15">
       <c r="A73" s="20"/>
       <c r="B73" s="21"/>
       <c r="C73" s="20"/>
-      <c r="D73" s="31"/>
-      <c r="E73" s="31"/>
-      <c r="F73" s="31"/>
-      <c r="G73" s="31"/>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-      <c r="J73" s="31"/>
+      <c r="D73" s="25"/>
+      <c r="E73" s="25"/>
+      <c r="F73" s="25"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="25"/>
+      <c r="I73" s="25"/>
+      <c r="J73" s="25"/>
       <c r="K73" s="21"/>
-      <c r="L73" s="36"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="36"/>
-      <c r="O73" s="37"/>
+      <c r="L73" s="30"/>
+      <c r="M73" s="31"/>
+      <c r="N73" s="30"/>
+      <c r="O73" s="31"/>
     </row>
     <row r="74" spans="1:15">
       <c r="A74" s="20"/>
       <c r="B74" s="21"/>
       <c r="C74" s="20"/>
-      <c r="D74" s="31"/>
-      <c r="E74" s="31"/>
-      <c r="F74" s="31"/>
-      <c r="G74" s="31"/>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-      <c r="J74" s="31"/>
+      <c r="D74" s="25"/>
+      <c r="E74" s="25"/>
+      <c r="F74" s="25"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="25"/>
+      <c r="I74" s="25"/>
+      <c r="J74" s="25"/>
       <c r="K74" s="21"/>
-      <c r="L74" s="36"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="36"/>
-      <c r="O74" s="37"/>
+      <c r="L74" s="30"/>
+      <c r="M74" s="31"/>
+      <c r="N74" s="30"/>
+      <c r="O74" s="31"/>
     </row>
     <row r="75" spans="1:15">
       <c r="A75" s="20"/>
       <c r="B75" s="21"/>
       <c r="C75" s="20"/>
-      <c r="D75" s="31"/>
-      <c r="E75" s="31"/>
-      <c r="F75" s="31"/>
-      <c r="G75" s="31"/>
-      <c r="H75" s="31"/>
-      <c r="I75" s="31"/>
-      <c r="J75" s="31"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="25"/>
+      <c r="F75" s="25"/>
+      <c r="G75" s="25"/>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="25"/>
       <c r="K75" s="21"/>
-      <c r="L75" s="36"/>
-      <c r="M75" s="37"/>
-      <c r="N75" s="36"/>
-      <c r="O75" s="37"/>
+      <c r="L75" s="30"/>
+      <c r="M75" s="31"/>
+      <c r="N75" s="30"/>
+      <c r="O75" s="31"/>
     </row>
     <row r="76" spans="1:15">
       <c r="A76" s="20"/>
       <c r="B76" s="21"/>
       <c r="C76" s="20"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="31"/>
-      <c r="F76" s="31"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-      <c r="J76" s="31"/>
+      <c r="D76" s="25"/>
+      <c r="E76" s="25"/>
+      <c r="F76" s="25"/>
+      <c r="G76" s="25"/>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="25"/>
       <c r="K76" s="21"/>
-      <c r="L76" s="36"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="36"/>
-      <c r="O76" s="37"/>
+      <c r="L76" s="30"/>
+      <c r="M76" s="31"/>
+      <c r="N76" s="30"/>
+      <c r="O76" s="31"/>
     </row>
     <row r="77" spans="1:15">
       <c r="A77" s="20"/>
       <c r="B77" s="21"/>
       <c r="C77" s="20"/>
-      <c r="D77" s="31"/>
-      <c r="E77" s="31"/>
-      <c r="F77" s="31"/>
-      <c r="G77" s="31"/>
-      <c r="H77" s="31"/>
-      <c r="I77" s="31"/>
-      <c r="J77" s="31"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="25"/>
+      <c r="F77" s="25"/>
+      <c r="G77" s="25"/>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="25"/>
       <c r="K77" s="21"/>
-      <c r="L77" s="36"/>
-      <c r="M77" s="37"/>
-      <c r="N77" s="36"/>
-      <c r="O77" s="37"/>
+      <c r="L77" s="30"/>
+      <c r="M77" s="31"/>
+      <c r="N77" s="30"/>
+      <c r="O77" s="31"/>
     </row>
     <row r="78" spans="1:15">
       <c r="A78" s="20"/>
       <c r="B78" s="21"/>
       <c r="C78" s="20"/>
-      <c r="D78" s="31"/>
-      <c r="E78" s="31"/>
-      <c r="F78" s="31"/>
-      <c r="G78" s="31"/>
-      <c r="H78" s="31"/>
-      <c r="I78" s="31"/>
-      <c r="J78" s="31"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="25"/>
+      <c r="F78" s="25"/>
+      <c r="G78" s="25"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="25"/>
       <c r="K78" s="21"/>
-      <c r="L78" s="36"/>
-      <c r="M78" s="37"/>
-      <c r="N78" s="36"/>
-      <c r="O78" s="37"/>
+      <c r="L78" s="30"/>
+      <c r="M78" s="31"/>
+      <c r="N78" s="30"/>
+      <c r="O78" s="31"/>
     </row>
     <row r="79" spans="1:15">
       <c r="A79" s="20"/>
       <c r="B79" s="21"/>
       <c r="C79" s="20"/>
-      <c r="D79" s="31"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="31"/>
-      <c r="G79" s="31"/>
-      <c r="H79" s="31"/>
-      <c r="I79" s="31"/>
-      <c r="J79" s="31"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="25"/>
+      <c r="F79" s="25"/>
+      <c r="G79" s="25"/>
+      <c r="H79" s="25"/>
+      <c r="I79" s="25"/>
+      <c r="J79" s="25"/>
       <c r="K79" s="21"/>
-      <c r="L79" s="36"/>
-      <c r="M79" s="37"/>
-      <c r="N79" s="36"/>
-      <c r="O79" s="37"/>
+      <c r="L79" s="30"/>
+      <c r="M79" s="31"/>
+      <c r="N79" s="30"/>
+      <c r="O79" s="31"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="20"/>
       <c r="B80" s="21"/>
       <c r="C80" s="20"/>
-      <c r="D80" s="31"/>
-      <c r="E80" s="31"/>
-      <c r="F80" s="31"/>
-      <c r="G80" s="31"/>
-      <c r="H80" s="31"/>
-      <c r="I80" s="31"/>
-      <c r="J80" s="31"/>
+      <c r="D80" s="25"/>
+      <c r="E80" s="25"/>
+      <c r="F80" s="25"/>
+      <c r="G80" s="25"/>
+      <c r="H80" s="25"/>
+      <c r="I80" s="25"/>
+      <c r="J80" s="25"/>
       <c r="K80" s="21"/>
-      <c r="L80" s="36"/>
-      <c r="M80" s="37"/>
-      <c r="N80" s="36"/>
-      <c r="O80" s="37"/>
+      <c r="L80" s="30"/>
+      <c r="M80" s="31"/>
+      <c r="N80" s="30"/>
+      <c r="O80" s="31"/>
     </row>
     <row r="81" spans="1:15">
       <c r="A81" s="20"/>
       <c r="B81" s="21"/>
       <c r="C81" s="20"/>
-      <c r="D81" s="31"/>
-      <c r="E81" s="31"/>
-      <c r="F81" s="31"/>
-      <c r="G81" s="31"/>
-      <c r="H81" s="31"/>
-      <c r="I81" s="31"/>
-      <c r="J81" s="31"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="25"/>
+      <c r="F81" s="25"/>
+      <c r="G81" s="25"/>
+      <c r="H81" s="25"/>
+      <c r="I81" s="25"/>
+      <c r="J81" s="25"/>
       <c r="K81" s="21"/>
-      <c r="L81" s="36"/>
-      <c r="M81" s="37"/>
-      <c r="N81" s="36"/>
-      <c r="O81" s="37"/>
+      <c r="L81" s="30"/>
+      <c r="M81" s="31"/>
+      <c r="N81" s="30"/>
+      <c r="O81" s="31"/>
     </row>
     <row r="82" spans="1:15">
       <c r="A82" s="20"/>
       <c r="B82" s="21"/>
       <c r="C82" s="20"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
+      <c r="D82" s="25"/>
+      <c r="E82" s="25"/>
+      <c r="F82" s="25"/>
+      <c r="G82" s="25"/>
+      <c r="H82" s="25"/>
+      <c r="I82" s="25"/>
+      <c r="J82" s="25"/>
       <c r="K82" s="21"/>
-      <c r="L82" s="36"/>
-      <c r="M82" s="37"/>
-      <c r="N82" s="36"/>
-      <c r="O82" s="37"/>
+      <c r="L82" s="30"/>
+      <c r="M82" s="31"/>
+      <c r="N82" s="30"/>
+      <c r="O82" s="31"/>
     </row>
     <row r="83" spans="1:15">
       <c r="A83" s="20"/>
       <c r="B83" s="21"/>
       <c r="C83" s="20"/>
-      <c r="D83" s="31"/>
-      <c r="E83" s="31"/>
-      <c r="F83" s="31"/>
-      <c r="G83" s="31"/>
-      <c r="H83" s="31"/>
-      <c r="I83" s="31"/>
-      <c r="J83" s="31"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="25"/>
+      <c r="F83" s="25"/>
+      <c r="G83" s="25"/>
+      <c r="H83" s="25"/>
+      <c r="I83" s="25"/>
+      <c r="J83" s="25"/>
       <c r="K83" s="21"/>
-      <c r="L83" s="36"/>
-      <c r="M83" s="37"/>
-      <c r="N83" s="36"/>
-      <c r="O83" s="37"/>
+      <c r="L83" s="30"/>
+      <c r="M83" s="31"/>
+      <c r="N83" s="30"/>
+      <c r="O83" s="31"/>
     </row>
     <row r="84" spans="1:15">
       <c r="A84" s="20"/>
       <c r="B84" s="21"/>
       <c r="C84" s="20"/>
-      <c r="D84" s="31"/>
-      <c r="E84" s="31"/>
-      <c r="F84" s="31"/>
-      <c r="G84" s="31"/>
-      <c r="H84" s="31"/>
-      <c r="I84" s="31"/>
-      <c r="J84" s="31"/>
+      <c r="D84" s="25"/>
+      <c r="E84" s="25"/>
+      <c r="F84" s="25"/>
+      <c r="G84" s="25"/>
+      <c r="H84" s="25"/>
+      <c r="I84" s="25"/>
+      <c r="J84" s="25"/>
       <c r="K84" s="21"/>
-      <c r="L84" s="36"/>
-      <c r="M84" s="37"/>
-      <c r="N84" s="36"/>
-      <c r="O84" s="37"/>
+      <c r="L84" s="30"/>
+      <c r="M84" s="31"/>
+      <c r="N84" s="30"/>
+      <c r="O84" s="31"/>
     </row>
     <row r="85" spans="1:15">
       <c r="A85" s="20"/>
       <c r="B85" s="21"/>
       <c r="C85" s="20"/>
-      <c r="D85" s="31"/>
-      <c r="E85" s="31"/>
-      <c r="F85" s="31"/>
-      <c r="G85" s="31"/>
-      <c r="H85" s="31"/>
-      <c r="I85" s="31"/>
-      <c r="J85" s="31"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="25"/>
+      <c r="F85" s="25"/>
+      <c r="G85" s="25"/>
+      <c r="H85" s="25"/>
+      <c r="I85" s="25"/>
+      <c r="J85" s="25"/>
       <c r="K85" s="21"/>
-      <c r="L85" s="36"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="36"/>
-      <c r="O85" s="37"/>
+      <c r="L85" s="30"/>
+      <c r="M85" s="31"/>
+      <c r="N85" s="30"/>
+      <c r="O85" s="31"/>
     </row>
     <row r="86" spans="1:15">
       <c r="A86" s="20"/>
       <c r="B86" s="21"/>
       <c r="C86" s="20"/>
-      <c r="D86" s="31"/>
-      <c r="E86" s="31"/>
-      <c r="F86" s="31"/>
-      <c r="G86" s="31"/>
-      <c r="H86" s="31"/>
-      <c r="I86" s="31"/>
-      <c r="J86" s="31"/>
+      <c r="D86" s="25"/>
+      <c r="E86" s="25"/>
+      <c r="F86" s="25"/>
+      <c r="G86" s="25"/>
+      <c r="H86" s="25"/>
+      <c r="I86" s="25"/>
+      <c r="J86" s="25"/>
       <c r="K86" s="21"/>
-      <c r="L86" s="36"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="36"/>
-      <c r="O86" s="37"/>
+      <c r="L86" s="30"/>
+      <c r="M86" s="31"/>
+      <c r="N86" s="30"/>
+      <c r="O86" s="31"/>
     </row>
     <row r="87" spans="1:15">
       <c r="A87" s="20"/>
       <c r="B87" s="21"/>
       <c r="C87" s="20"/>
-      <c r="D87" s="31"/>
-      <c r="E87" s="31"/>
-      <c r="F87" s="31"/>
-      <c r="G87" s="31"/>
-      <c r="H87" s="31"/>
-      <c r="I87" s="31"/>
-      <c r="J87" s="31"/>
+      <c r="D87" s="25"/>
+      <c r="E87" s="25"/>
+      <c r="F87" s="25"/>
+      <c r="G87" s="25"/>
+      <c r="H87" s="25"/>
+      <c r="I87" s="25"/>
+      <c r="J87" s="25"/>
       <c r="K87" s="21"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="36"/>
-      <c r="O87" s="37"/>
+      <c r="L87" s="30"/>
+      <c r="M87" s="31"/>
+      <c r="N87" s="30"/>
+      <c r="O87" s="31"/>
     </row>
     <row r="88" spans="1:15">
       <c r="A88" s="20"/>
       <c r="B88" s="21"/>
       <c r="C88" s="20"/>
-      <c r="D88" s="31"/>
-      <c r="E88" s="31"/>
-      <c r="F88" s="31"/>
-      <c r="G88" s="31"/>
-      <c r="H88" s="31"/>
-      <c r="I88" s="31"/>
-      <c r="J88" s="31"/>
+      <c r="D88" s="25"/>
+      <c r="E88" s="25"/>
+      <c r="F88" s="25"/>
+      <c r="G88" s="25"/>
+      <c r="H88" s="25"/>
+      <c r="I88" s="25"/>
+      <c r="J88" s="25"/>
       <c r="K88" s="21"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="36"/>
-      <c r="O88" s="37"/>
+      <c r="L88" s="30"/>
+      <c r="M88" s="31"/>
+      <c r="N88" s="30"/>
+      <c r="O88" s="31"/>
     </row>
     <row r="89" spans="1:15">
       <c r="A89" s="20"/>
       <c r="B89" s="21"/>
       <c r="C89" s="20"/>
-      <c r="D89" s="31"/>
-      <c r="E89" s="31"/>
-      <c r="F89" s="31"/>
-      <c r="G89" s="31"/>
-      <c r="H89" s="31"/>
-      <c r="I89" s="31"/>
-      <c r="J89" s="31"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="25"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="25"/>
+      <c r="J89" s="25"/>
       <c r="K89" s="21"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="36"/>
-      <c r="O89" s="37"/>
+      <c r="L89" s="30"/>
+      <c r="M89" s="31"/>
+      <c r="N89" s="30"/>
+      <c r="O89" s="31"/>
     </row>
     <row r="90" spans="1:15">
       <c r="A90" s="20"/>
       <c r="B90" s="21"/>
       <c r="C90" s="20"/>
-      <c r="D90" s="31"/>
-      <c r="E90" s="31"/>
-      <c r="F90" s="31"/>
-      <c r="G90" s="31"/>
-      <c r="H90" s="31"/>
-      <c r="I90" s="31"/>
-      <c r="J90" s="31"/>
+      <c r="D90" s="25"/>
+      <c r="E90" s="25"/>
+      <c r="F90" s="25"/>
+      <c r="G90" s="25"/>
+      <c r="H90" s="25"/>
+      <c r="I90" s="25"/>
+      <c r="J90" s="25"/>
       <c r="K90" s="21"/>
-      <c r="L90" s="36"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="36"/>
-      <c r="O90" s="37"/>
+      <c r="L90" s="30"/>
+      <c r="M90" s="31"/>
+      <c r="N90" s="30"/>
+      <c r="O90" s="31"/>
     </row>
     <row r="91" spans="1:15">
       <c r="A91" s="20"/>
       <c r="B91" s="21"/>
       <c r="C91" s="20"/>
-      <c r="D91" s="31"/>
-      <c r="E91" s="31"/>
-      <c r="F91" s="31"/>
-      <c r="G91" s="31"/>
-      <c r="H91" s="31"/>
-      <c r="I91" s="31"/>
-      <c r="J91" s="31"/>
+      <c r="D91" s="25"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="25"/>
+      <c r="G91" s="25"/>
+      <c r="H91" s="25"/>
+      <c r="I91" s="25"/>
+      <c r="J91" s="25"/>
       <c r="K91" s="21"/>
-      <c r="L91" s="36"/>
-      <c r="M91" s="37"/>
-      <c r="N91" s="36"/>
-      <c r="O91" s="37"/>
+      <c r="L91" s="30"/>
+      <c r="M91" s="31"/>
+      <c r="N91" s="30"/>
+      <c r="O91" s="31"/>
     </row>
     <row r="92" spans="1:15">
       <c r="A92" s="20"/>
       <c r="B92" s="21"/>
       <c r="C92" s="20"/>
-      <c r="D92" s="31"/>
-      <c r="E92" s="31"/>
-      <c r="F92" s="31"/>
-      <c r="G92" s="31"/>
-      <c r="H92" s="31"/>
-      <c r="I92" s="31"/>
-      <c r="J92" s="31"/>
+      <c r="D92" s="25"/>
+      <c r="E92" s="25"/>
+      <c r="F92" s="25"/>
+      <c r="G92" s="25"/>
+      <c r="H92" s="25"/>
+      <c r="I92" s="25"/>
+      <c r="J92" s="25"/>
       <c r="K92" s="21"/>
-      <c r="L92" s="36"/>
-      <c r="M92" s="37"/>
-      <c r="N92" s="36"/>
-      <c r="O92" s="37"/>
+      <c r="L92" s="30"/>
+      <c r="M92" s="31"/>
+      <c r="N92" s="30"/>
+      <c r="O92" s="31"/>
     </row>
     <row r="93" spans="1:15">
       <c r="A93" s="20"/>
       <c r="B93" s="21"/>
       <c r="C93" s="20"/>
-      <c r="D93" s="31"/>
-      <c r="E93" s="31"/>
-      <c r="F93" s="31"/>
-      <c r="G93" s="31"/>
-      <c r="H93" s="31"/>
-      <c r="I93" s="31"/>
-      <c r="J93" s="31"/>
+      <c r="D93" s="25"/>
+      <c r="E93" s="25"/>
+      <c r="F93" s="25"/>
+      <c r="G93" s="25"/>
+      <c r="H93" s="25"/>
+      <c r="I93" s="25"/>
+      <c r="J93" s="25"/>
       <c r="K93" s="21"/>
-      <c r="L93" s="36"/>
-      <c r="M93" s="37"/>
-      <c r="N93" s="36"/>
-      <c r="O93" s="37"/>
+      <c r="L93" s="30"/>
+      <c r="M93" s="31"/>
+      <c r="N93" s="30"/>
+      <c r="O93" s="31"/>
     </row>
     <row r="94" spans="1:15">
       <c r="A94" s="20"/>
       <c r="B94" s="21"/>
       <c r="C94" s="20"/>
-      <c r="D94" s="31"/>
-      <c r="E94" s="31"/>
-      <c r="F94" s="31"/>
-      <c r="G94" s="31"/>
-      <c r="H94" s="31"/>
-      <c r="I94" s="31"/>
-      <c r="J94" s="31"/>
+      <c r="D94" s="25"/>
+      <c r="E94" s="25"/>
+      <c r="F94" s="25"/>
+      <c r="G94" s="25"/>
+      <c r="H94" s="25"/>
+      <c r="I94" s="25"/>
+      <c r="J94" s="25"/>
       <c r="K94" s="21"/>
-      <c r="L94" s="36"/>
-      <c r="M94" s="37"/>
-      <c r="N94" s="36"/>
-      <c r="O94" s="37"/>
+      <c r="L94" s="30"/>
+      <c r="M94" s="31"/>
+      <c r="N94" s="30"/>
+      <c r="O94" s="31"/>
     </row>
     <row r="95" spans="1:15">
       <c r="A95" s="20"/>
       <c r="B95" s="21"/>
       <c r="C95" s="20"/>
-      <c r="D95" s="31"/>
-      <c r="E95" s="31"/>
-      <c r="F95" s="31"/>
-      <c r="G95" s="31"/>
-      <c r="H95" s="31"/>
-      <c r="I95" s="31"/>
-      <c r="J95" s="31"/>
+      <c r="D95" s="25"/>
+      <c r="E95" s="25"/>
+      <c r="F95" s="25"/>
+      <c r="G95" s="25"/>
+      <c r="H95" s="25"/>
+      <c r="I95" s="25"/>
+      <c r="J95" s="25"/>
       <c r="K95" s="21"/>
-      <c r="L95" s="36"/>
-      <c r="M95" s="37"/>
-      <c r="N95" s="36"/>
-      <c r="O95" s="37"/>
+      <c r="L95" s="30"/>
+      <c r="M95" s="31"/>
+      <c r="N95" s="30"/>
+      <c r="O95" s="31"/>
     </row>
     <row r="96" spans="1:15">
       <c r="A96" s="20"/>
       <c r="B96" s="21"/>
       <c r="C96" s="20"/>
-      <c r="D96" s="31"/>
-      <c r="E96" s="31"/>
-      <c r="F96" s="31"/>
-      <c r="G96" s="31"/>
-      <c r="H96" s="31"/>
-      <c r="I96" s="31"/>
-      <c r="J96" s="31"/>
+      <c r="D96" s="25"/>
+      <c r="E96" s="25"/>
+      <c r="F96" s="25"/>
+      <c r="G96" s="25"/>
+      <c r="H96" s="25"/>
+      <c r="I96" s="25"/>
+      <c r="J96" s="25"/>
       <c r="K96" s="21"/>
-      <c r="L96" s="36"/>
-      <c r="M96" s="37"/>
-      <c r="N96" s="36"/>
-      <c r="O96" s="37"/>
+      <c r="L96" s="30"/>
+      <c r="M96" s="31"/>
+      <c r="N96" s="30"/>
+      <c r="O96" s="31"/>
     </row>
     <row r="97" spans="1:15">
       <c r="A97" s="20"/>
       <c r="B97" s="21"/>
       <c r="C97" s="20"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="31"/>
-      <c r="H97" s="31"/>
-      <c r="I97" s="31"/>
-      <c r="J97" s="31"/>
+      <c r="D97" s="25"/>
+      <c r="E97" s="25"/>
+      <c r="F97" s="25"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="25"/>
+      <c r="I97" s="25"/>
+      <c r="J97" s="25"/>
       <c r="K97" s="21"/>
-      <c r="L97" s="36"/>
-      <c r="M97" s="37"/>
-      <c r="N97" s="36"/>
-      <c r="O97" s="37"/>
+      <c r="L97" s="30"/>
+      <c r="M97" s="31"/>
+      <c r="N97" s="30"/>
+      <c r="O97" s="31"/>
     </row>
     <row r="98" spans="1:15">
       <c r="A98" s="20"/>
       <c r="B98" s="21"/>
       <c r="C98" s="20"/>
-      <c r="D98" s="31"/>
-      <c r="E98" s="31"/>
-      <c r="F98" s="31"/>
-      <c r="G98" s="31"/>
-      <c r="H98" s="31"/>
-      <c r="I98" s="31"/>
-      <c r="J98" s="31"/>
+      <c r="D98" s="25"/>
+      <c r="E98" s="25"/>
+      <c r="F98" s="25"/>
+      <c r="G98" s="25"/>
+      <c r="H98" s="25"/>
+      <c r="I98" s="25"/>
+      <c r="J98" s="25"/>
       <c r="K98" s="21"/>
-      <c r="L98" s="36"/>
-      <c r="M98" s="37"/>
-      <c r="N98" s="36"/>
-      <c r="O98" s="37"/>
+      <c r="L98" s="30"/>
+      <c r="M98" s="31"/>
+      <c r="N98" s="30"/>
+      <c r="O98" s="31"/>
     </row>
     <row r="99" spans="1:15">
       <c r="A99" s="20"/>
       <c r="B99" s="21"/>
       <c r="C99" s="20"/>
-      <c r="D99" s="31"/>
-      <c r="E99" s="31"/>
-      <c r="F99" s="31"/>
-      <c r="G99" s="31"/>
-      <c r="H99" s="31"/>
-      <c r="I99" s="31"/>
-      <c r="J99" s="31"/>
+      <c r="D99" s="25"/>
+      <c r="E99" s="25"/>
+      <c r="F99" s="25"/>
+      <c r="G99" s="25"/>
+      <c r="H99" s="25"/>
+      <c r="I99" s="25"/>
+      <c r="J99" s="25"/>
       <c r="K99" s="21"/>
-      <c r="L99" s="36"/>
-      <c r="M99" s="37"/>
-      <c r="N99" s="36"/>
-      <c r="O99" s="37"/>
+      <c r="L99" s="30"/>
+      <c r="M99" s="31"/>
+      <c r="N99" s="30"/>
+      <c r="O99" s="31"/>
     </row>
     <row r="100" spans="1:15">
       <c r="A100" s="20"/>
       <c r="B100" s="21"/>
       <c r="C100" s="20"/>
-      <c r="D100" s="31"/>
-      <c r="E100" s="31"/>
-      <c r="F100" s="31"/>
-      <c r="G100" s="31"/>
-      <c r="H100" s="31"/>
-      <c r="I100" s="31"/>
-      <c r="J100" s="31"/>
+      <c r="D100" s="25"/>
+      <c r="E100" s="25"/>
+      <c r="F100" s="25"/>
+      <c r="G100" s="25"/>
+      <c r="H100" s="25"/>
+      <c r="I100" s="25"/>
+      <c r="J100" s="25"/>
       <c r="K100" s="21"/>
-      <c r="L100" s="36"/>
-      <c r="M100" s="37"/>
-      <c r="N100" s="36"/>
-      <c r="O100" s="37"/>
+      <c r="L100" s="30"/>
+      <c r="M100" s="31"/>
+      <c r="N100" s="30"/>
+      <c r="O100" s="31"/>
     </row>
     <row r="101" spans="1:15">
       <c r="A101" s="20"/>
       <c r="B101" s="21"/>
       <c r="C101" s="20"/>
-      <c r="D101" s="31"/>
-      <c r="E101" s="31"/>
-      <c r="F101" s="31"/>
-      <c r="G101" s="31"/>
-      <c r="H101" s="31"/>
-      <c r="I101" s="31"/>
-      <c r="J101" s="31"/>
+      <c r="D101" s="25"/>
+      <c r="E101" s="25"/>
+      <c r="F101" s="25"/>
+      <c r="G101" s="25"/>
+      <c r="H101" s="25"/>
+      <c r="I101" s="25"/>
+      <c r="J101" s="25"/>
       <c r="K101" s="21"/>
-      <c r="L101" s="36"/>
-      <c r="M101" s="37"/>
-      <c r="N101" s="36"/>
-      <c r="O101" s="37"/>
+      <c r="L101" s="30"/>
+      <c r="M101" s="31"/>
+      <c r="N101" s="30"/>
+      <c r="O101" s="31"/>
     </row>
     <row r="102" spans="1:15">
       <c r="A102" s="20"/>
       <c r="B102" s="21"/>
       <c r="C102" s="20"/>
-      <c r="D102" s="31"/>
-      <c r="E102" s="31"/>
-      <c r="F102" s="31"/>
-      <c r="G102" s="31"/>
-      <c r="H102" s="31"/>
-      <c r="I102" s="31"/>
-      <c r="J102" s="31"/>
+      <c r="D102" s="25"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="25"/>
+      <c r="G102" s="25"/>
+      <c r="H102" s="25"/>
+      <c r="I102" s="25"/>
+      <c r="J102" s="25"/>
       <c r="K102" s="21"/>
-      <c r="L102" s="36"/>
-      <c r="M102" s="37"/>
-      <c r="N102" s="36"/>
-      <c r="O102" s="37"/>
+      <c r="L102" s="30"/>
+      <c r="M102" s="31"/>
+      <c r="N102" s="30"/>
+      <c r="O102" s="31"/>
     </row>
     <row r="103" spans="1:15">
       <c r="A103" s="20"/>
       <c r="B103" s="21"/>
       <c r="C103" s="20"/>
-      <c r="D103" s="31"/>
-      <c r="E103" s="31"/>
-      <c r="F103" s="31"/>
-      <c r="G103" s="31"/>
-      <c r="H103" s="31"/>
-      <c r="I103" s="31"/>
-      <c r="J103" s="31"/>
+      <c r="D103" s="25"/>
+      <c r="E103" s="25"/>
+      <c r="F103" s="25"/>
+      <c r="G103" s="25"/>
+      <c r="H103" s="25"/>
+      <c r="I103" s="25"/>
+      <c r="J103" s="25"/>
       <c r="K103" s="21"/>
-      <c r="L103" s="36"/>
-      <c r="M103" s="37"/>
-      <c r="N103" s="36"/>
-      <c r="O103" s="37"/>
+      <c r="L103" s="30"/>
+      <c r="M103" s="31"/>
+      <c r="N103" s="30"/>
+      <c r="O103" s="31"/>
     </row>
     <row r="104" spans="1:15">
       <c r="A104" s="20"/>
       <c r="B104" s="21"/>
       <c r="C104" s="20"/>
-      <c r="D104" s="31"/>
-      <c r="E104" s="31"/>
-      <c r="F104" s="31"/>
-      <c r="G104" s="31"/>
-      <c r="H104" s="31"/>
-      <c r="I104" s="31"/>
-      <c r="J104" s="31"/>
+      <c r="D104" s="25"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="25"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="25"/>
+      <c r="I104" s="25"/>
+      <c r="J104" s="25"/>
       <c r="K104" s="21"/>
-      <c r="L104" s="36"/>
-      <c r="M104" s="37"/>
-      <c r="N104" s="36"/>
-      <c r="O104" s="37"/>
+      <c r="L104" s="30"/>
+      <c r="M104" s="31"/>
+      <c r="N104" s="30"/>
+      <c r="O104" s="31"/>
     </row>
     <row r="105" spans="1:15">
       <c r="A105" s="20"/>
       <c r="B105" s="21"/>
       <c r="C105" s="20"/>
-      <c r="D105" s="31"/>
-      <c r="E105" s="31"/>
-      <c r="F105" s="31"/>
-      <c r="G105" s="31"/>
-      <c r="H105" s="31"/>
-      <c r="I105" s="31"/>
-      <c r="J105" s="31"/>
+      <c r="D105" s="25"/>
+      <c r="E105" s="25"/>
+      <c r="F105" s="25"/>
+      <c r="G105" s="25"/>
+      <c r="H105" s="25"/>
+      <c r="I105" s="25"/>
+      <c r="J105" s="25"/>
       <c r="K105" s="21"/>
-      <c r="L105" s="36"/>
-      <c r="M105" s="37"/>
-      <c r="N105" s="36"/>
-      <c r="O105" s="37"/>
+      <c r="L105" s="30"/>
+      <c r="M105" s="31"/>
+      <c r="N105" s="30"/>
+      <c r="O105" s="31"/>
     </row>
     <row r="106" spans="1:15">
       <c r="A106" s="20"/>
       <c r="B106" s="21"/>
       <c r="C106" s="20"/>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="31"/>
-      <c r="G106" s="31"/>
-      <c r="H106" s="31"/>
-      <c r="I106" s="31"/>
-      <c r="J106" s="31"/>
+      <c r="D106" s="25"/>
+      <c r="E106" s="25"/>
+      <c r="F106" s="25"/>
+      <c r="G106" s="25"/>
+      <c r="H106" s="25"/>
+      <c r="I106" s="25"/>
+      <c r="J106" s="25"/>
       <c r="K106" s="21"/>
-      <c r="L106" s="36"/>
-      <c r="M106" s="37"/>
-      <c r="N106" s="36"/>
-      <c r="O106" s="37"/>
+      <c r="L106" s="30"/>
+      <c r="M106" s="31"/>
+      <c r="N106" s="30"/>
+      <c r="O106" s="31"/>
     </row>
     <row r="107" spans="1:15">
       <c r="A107" s="20"/>
       <c r="B107" s="21"/>
       <c r="C107" s="20"/>
-      <c r="D107" s="31"/>
-      <c r="E107" s="31"/>
-      <c r="F107" s="31"/>
-      <c r="G107" s="31"/>
-      <c r="H107" s="31"/>
-      <c r="I107" s="31"/>
-      <c r="J107" s="31"/>
+      <c r="D107" s="25"/>
+      <c r="E107" s="25"/>
+      <c r="F107" s="25"/>
+      <c r="G107" s="25"/>
+      <c r="H107" s="25"/>
+      <c r="I107" s="25"/>
+      <c r="J107" s="25"/>
       <c r="K107" s="21"/>
-      <c r="L107" s="36"/>
-      <c r="M107" s="37"/>
-      <c r="N107" s="36"/>
-      <c r="O107" s="37"/>
+      <c r="L107" s="30"/>
+      <c r="M107" s="31"/>
+      <c r="N107" s="30"/>
+      <c r="O107" s="31"/>
     </row>
     <row r="108" spans="1:15">
       <c r="A108" s="20"/>
       <c r="B108" s="21"/>
       <c r="C108" s="20"/>
-      <c r="D108" s="31"/>
-      <c r="E108" s="31"/>
-      <c r="F108" s="31"/>
-      <c r="G108" s="31"/>
-      <c r="H108" s="31"/>
-      <c r="I108" s="31"/>
-      <c r="J108" s="31"/>
+      <c r="D108" s="25"/>
+      <c r="E108" s="25"/>
+      <c r="F108" s="25"/>
+      <c r="G108" s="25"/>
+      <c r="H108" s="25"/>
+      <c r="I108" s="25"/>
+      <c r="J108" s="25"/>
       <c r="K108" s="21"/>
-      <c r="L108" s="36"/>
-      <c r="M108" s="37"/>
-      <c r="N108" s="36"/>
-      <c r="O108" s="37"/>
+      <c r="L108" s="30"/>
+      <c r="M108" s="31"/>
+      <c r="N108" s="30"/>
+      <c r="O108" s="31"/>
     </row>
     <row r="109" spans="1:15">
       <c r="A109" s="20"/>
       <c r="B109" s="21"/>
       <c r="C109" s="20"/>
-      <c r="D109" s="31"/>
-      <c r="E109" s="31"/>
-      <c r="F109" s="31"/>
-      <c r="G109" s="31"/>
-      <c r="H109" s="31"/>
-      <c r="I109" s="31"/>
-      <c r="J109" s="31"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="25"/>
+      <c r="F109" s="25"/>
+      <c r="G109" s="25"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="25"/>
+      <c r="J109" s="25"/>
       <c r="K109" s="21"/>
-      <c r="L109" s="36"/>
-      <c r="M109" s="37"/>
-      <c r="N109" s="36"/>
-      <c r="O109" s="37"/>
+      <c r="L109" s="30"/>
+      <c r="M109" s="31"/>
+      <c r="N109" s="30"/>
+      <c r="O109" s="31"/>
     </row>
     <row r="110" spans="1:15">
       <c r="A110" s="20"/>
       <c r="B110" s="21"/>
       <c r="C110" s="20"/>
-      <c r="D110" s="31"/>
-      <c r="E110" s="31"/>
-      <c r="F110" s="31"/>
-      <c r="G110" s="31"/>
-      <c r="H110" s="31"/>
-      <c r="I110" s="31"/>
-      <c r="J110" s="31"/>
+      <c r="D110" s="25"/>
+      <c r="E110" s="25"/>
+      <c r="F110" s="25"/>
+      <c r="G110" s="25"/>
+      <c r="H110" s="25"/>
+      <c r="I110" s="25"/>
+      <c r="J110" s="25"/>
       <c r="K110" s="21"/>
-      <c r="L110" s="36"/>
-      <c r="M110" s="37"/>
-      <c r="N110" s="36"/>
-      <c r="O110" s="37"/>
+      <c r="L110" s="30"/>
+      <c r="M110" s="31"/>
+      <c r="N110" s="30"/>
+      <c r="O110" s="31"/>
     </row>
     <row r="111" spans="1:15">
       <c r="A111" s="20"/>
       <c r="B111" s="21"/>
       <c r="C111" s="20"/>
-      <c r="D111" s="31"/>
-      <c r="E111" s="31"/>
-      <c r="F111" s="31"/>
-      <c r="G111" s="31"/>
-      <c r="H111" s="31"/>
-      <c r="I111" s="31"/>
-      <c r="J111" s="31"/>
+      <c r="D111" s="25"/>
+      <c r="E111" s="25"/>
+      <c r="F111" s="25"/>
+      <c r="G111" s="25"/>
+      <c r="H111" s="25"/>
+      <c r="I111" s="25"/>
+      <c r="J111" s="25"/>
       <c r="K111" s="21"/>
-      <c r="L111" s="36"/>
-      <c r="M111" s="37"/>
-      <c r="N111" s="36"/>
-      <c r="O111" s="37"/>
+      <c r="L111" s="30"/>
+      <c r="M111" s="31"/>
+      <c r="N111" s="30"/>
+      <c r="O111" s="31"/>
     </row>
     <row r="112" spans="1:15">
       <c r="A112" s="20"/>
       <c r="B112" s="21"/>
       <c r="C112" s="20"/>
-      <c r="D112" s="31"/>
-      <c r="E112" s="31"/>
-      <c r="F112" s="31"/>
-      <c r="G112" s="31"/>
-      <c r="H112" s="31"/>
-      <c r="I112" s="31"/>
-      <c r="J112" s="31"/>
+      <c r="D112" s="25"/>
+      <c r="E112" s="25"/>
+      <c r="F112" s="25"/>
+      <c r="G112" s="25"/>
+      <c r="H112" s="25"/>
+      <c r="I112" s="25"/>
+      <c r="J112" s="25"/>
       <c r="K112" s="21"/>
-      <c r="L112" s="36"/>
-      <c r="M112" s="37"/>
-      <c r="N112" s="36"/>
-      <c r="O112" s="37"/>
+      <c r="L112" s="30"/>
+      <c r="M112" s="31"/>
+      <c r="N112" s="30"/>
+      <c r="O112" s="31"/>
     </row>
     <row r="113" spans="1:15">
       <c r="A113" s="20"/>
       <c r="B113" s="21"/>
       <c r="C113" s="20"/>
-      <c r="D113" s="31"/>
-      <c r="E113" s="31"/>
-      <c r="F113" s="31"/>
-      <c r="G113" s="31"/>
-      <c r="H113" s="31"/>
-      <c r="I113" s="31"/>
-      <c r="J113" s="31"/>
+      <c r="D113" s="25"/>
+      <c r="E113" s="25"/>
+      <c r="F113" s="25"/>
+      <c r="G113" s="25"/>
+      <c r="H113" s="25"/>
+      <c r="I113" s="25"/>
+      <c r="J113" s="25"/>
       <c r="K113" s="21"/>
-      <c r="L113" s="36"/>
-      <c r="M113" s="37"/>
-      <c r="N113" s="36"/>
-      <c r="O113" s="37"/>
+      <c r="L113" s="30"/>
+      <c r="M113" s="31"/>
+      <c r="N113" s="30"/>
+      <c r="O113" s="31"/>
     </row>
     <row r="114" spans="1:15">
       <c r="A114" s="20"/>
       <c r="B114" s="21"/>
       <c r="C114" s="20"/>
-      <c r="D114" s="31"/>
-      <c r="E114" s="31"/>
-      <c r="F114" s="31"/>
-      <c r="G114" s="31"/>
-      <c r="H114" s="31"/>
-      <c r="I114" s="31"/>
-      <c r="J114" s="31"/>
+      <c r="D114" s="25"/>
+      <c r="E114" s="25"/>
+      <c r="F114" s="25"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="25"/>
+      <c r="I114" s="25"/>
+      <c r="J114" s="25"/>
       <c r="K114" s="21"/>
-      <c r="L114" s="36"/>
-      <c r="M114" s="37"/>
-      <c r="N114" s="36"/>
-      <c r="O114" s="37"/>
+      <c r="L114" s="30"/>
+      <c r="M114" s="31"/>
+      <c r="N114" s="30"/>
+      <c r="O114" s="31"/>
     </row>
     <row r="115" spans="1:15">
       <c r="A115" s="20"/>
       <c r="B115" s="21"/>
       <c r="C115" s="20"/>
-      <c r="D115" s="31"/>
-      <c r="E115" s="31"/>
-      <c r="F115" s="31"/>
-      <c r="G115" s="31"/>
-      <c r="H115" s="31"/>
-      <c r="I115" s="31"/>
-      <c r="J115" s="31"/>
+      <c r="D115" s="25"/>
+      <c r="E115" s="25"/>
+      <c r="F115" s="25"/>
+      <c r="G115" s="25"/>
+      <c r="H115" s="25"/>
+      <c r="I115" s="25"/>
+      <c r="J115" s="25"/>
       <c r="K115" s="21"/>
-      <c r="L115" s="36"/>
-      <c r="M115" s="37"/>
-      <c r="N115" s="36"/>
-      <c r="O115" s="37"/>
+      <c r="L115" s="30"/>
+      <c r="M115" s="31"/>
+      <c r="N115" s="30"/>
+      <c r="O115" s="31"/>
     </row>
     <row r="116" spans="1:15">
       <c r="A116" s="20"/>
       <c r="B116" s="21"/>
       <c r="C116" s="20"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
+      <c r="D116" s="25"/>
+      <c r="E116" s="25"/>
+      <c r="F116" s="25"/>
+      <c r="G116" s="25"/>
+      <c r="H116" s="25"/>
+      <c r="I116" s="25"/>
+      <c r="J116" s="25"/>
       <c r="K116" s="21"/>
-      <c r="L116" s="36"/>
-      <c r="M116" s="37"/>
-      <c r="N116" s="36"/>
-      <c r="O116" s="37"/>
+      <c r="L116" s="30"/>
+      <c r="M116" s="31"/>
+      <c r="N116" s="30"/>
+      <c r="O116" s="31"/>
     </row>
     <row r="117" spans="1:15">
       <c r="A117" s="20"/>
       <c r="B117" s="21"/>
       <c r="C117" s="20"/>
-      <c r="D117" s="31"/>
-      <c r="E117" s="31"/>
-      <c r="F117" s="31"/>
-      <c r="G117" s="31"/>
-      <c r="H117" s="31"/>
-      <c r="I117" s="31"/>
-      <c r="J117" s="31"/>
+      <c r="D117" s="25"/>
+      <c r="E117" s="25"/>
+      <c r="F117" s="25"/>
+      <c r="G117" s="25"/>
+      <c r="H117" s="25"/>
+      <c r="I117" s="25"/>
+      <c r="J117" s="25"/>
       <c r="K117" s="21"/>
-      <c r="L117" s="36"/>
-      <c r="M117" s="37"/>
-      <c r="N117" s="36"/>
-      <c r="O117" s="37"/>
+      <c r="L117" s="30"/>
+      <c r="M117" s="31"/>
+      <c r="N117" s="30"/>
+      <c r="O117" s="31"/>
     </row>
     <row r="118" spans="1:15">
       <c r="A118" s="20"/>
       <c r="B118" s="21"/>
       <c r="C118" s="20"/>
-      <c r="D118" s="31"/>
-      <c r="E118" s="31"/>
-      <c r="F118" s="31"/>
-      <c r="G118" s="31"/>
-      <c r="H118" s="31"/>
-      <c r="I118" s="31"/>
-      <c r="J118" s="31"/>
+      <c r="D118" s="25"/>
+      <c r="E118" s="25"/>
+      <c r="F118" s="25"/>
+      <c r="G118" s="25"/>
+      <c r="H118" s="25"/>
+      <c r="I118" s="25"/>
+      <c r="J118" s="25"/>
       <c r="K118" s="21"/>
-      <c r="L118" s="36"/>
-      <c r="M118" s="37"/>
-      <c r="N118" s="36"/>
-      <c r="O118" s="37"/>
+      <c r="L118" s="30"/>
+      <c r="M118" s="31"/>
+      <c r="N118" s="30"/>
+      <c r="O118" s="31"/>
     </row>
     <row r="119" spans="1:15">
       <c r="A119" s="20"/>
       <c r="B119" s="21"/>
       <c r="C119" s="20"/>
-      <c r="D119" s="31"/>
-      <c r="E119" s="31"/>
-      <c r="F119" s="31"/>
-      <c r="G119" s="31"/>
-      <c r="H119" s="31"/>
-      <c r="I119" s="31"/>
-      <c r="J119" s="31"/>
+      <c r="D119" s="25"/>
+      <c r="E119" s="25"/>
+      <c r="F119" s="25"/>
+      <c r="G119" s="25"/>
+      <c r="H119" s="25"/>
+      <c r="I119" s="25"/>
+      <c r="J119" s="25"/>
       <c r="K119" s="21"/>
-      <c r="L119" s="36"/>
-      <c r="M119" s="37"/>
-      <c r="N119" s="36"/>
-      <c r="O119" s="37"/>
+      <c r="L119" s="30"/>
+      <c r="M119" s="31"/>
+      <c r="N119" s="30"/>
+      <c r="O119" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="415">

--- a/文档/需求获取/QFD/SRA2021-G11-QFD 管理员打分表.xlsx
+++ b/文档/需求获取/QFD/SRA2021-G11-QFD 管理员打分表.xlsx
@@ -257,10 +257,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -295,23 +295,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -325,8 +311,91 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -340,75 +409,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -425,15 +426,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -454,7 +454,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -466,7 +466,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,7 +484,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -490,13 +532,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -508,7 +574,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,79 +592,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -604,31 +616,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -833,17 +833,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -857,11 +851,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -881,6 +881,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -892,15 +903,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -922,11 +924,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -938,10 +938,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -950,133 +950,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1750,7 +1750,7 @@
     </row>
     <row r="14" ht="15.15"/>
     <row r="15" ht="15.15"/>
-    <row r="16" spans="1:15">
+    <row r="16" ht="15.9" spans="1:15">
       <c r="A16" s="8" t="s">
         <v>11</v>
       </c>
